--- a/Analysis/LongForm/final_tables.xlsx
+++ b/Analysis/LongForm/final_tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>time</t>
   </si>
@@ -93,6 +94,57 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>match event</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std. dev</t>
+  </si>
+  <si>
+    <t>home goal</t>
+  </si>
+  <si>
+    <t>away goal</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>home yellow</t>
+  </si>
+  <si>
+    <t>away yellow</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>home red</t>
+  </si>
+  <si>
+    <t>away red</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -173,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,6 +267,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -512,12 +591,12 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -2415,4 +2494,635 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="27">
+        <f>570/760</f>
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.51</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <v>2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="27">
+        <f>518/760</f>
+        <v>0.68157894736842106</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.24</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24">
+        <v>2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="28">
+        <f>698/760</f>
+        <v>0.91842105263157892</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2.74</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1.71</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>3</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4</v>
+      </c>
+      <c r="J6" s="26">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="27">
+        <f>590/760</f>
+        <v>0.77631578947368418</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.41</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24">
+        <v>2</v>
+      </c>
+      <c r="J8" s="24">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="27">
+        <f>628/760</f>
+        <v>0.82631578947368423</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1.72</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1.27</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2</v>
+      </c>
+      <c r="I9" s="24">
+        <v>3</v>
+      </c>
+      <c r="J9" s="24">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28">
+        <f>716/760</f>
+        <v>0.94210526315789478</v>
+      </c>
+      <c r="D10" s="26">
+        <v>3.18</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1.85</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26">
+        <v>4</v>
+      </c>
+      <c r="J10" s="26">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="27">
+        <f>46/760</f>
+        <v>6.0526315789473685E-2</v>
+      </c>
+      <c r="D12" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="27">
+        <f>66/760</f>
+        <v>8.6842105263157901E-2</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="28">
+        <f>110/760</f>
+        <v>0.14473684210526316</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.39</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="O18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Analysis/LongForm/final_tables.xlsx
+++ b/Analysis/LongForm/final_tables.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="440" windowWidth="28160" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="119">
   <si>
     <t>time</t>
   </si>
@@ -145,13 +146,253 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t># obs</t>
+  </si>
+  <si>
+    <t>r-squared</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>competitive index</t>
+  </si>
+  <si>
+    <t>stage 2</t>
+  </si>
+  <si>
+    <t>stage 1</t>
+  </si>
+  <si>
+    <t>stage 4</t>
+  </si>
+  <si>
+    <t>stage 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">away yellow </t>
+  </si>
+  <si>
+    <t>man down</t>
+  </si>
+  <si>
+    <t>total goals</t>
+  </si>
+  <si>
+    <t>goal differential</t>
+  </si>
+  <si>
+    <t>total goals &gt;= 5</t>
+  </si>
+  <si>
+    <t>goal differential = 1</t>
+  </si>
+  <si>
+    <t>goal differential = 2</t>
+  </si>
+  <si>
+    <t>goal differential &gt;= 3</t>
+  </si>
+  <si>
+    <t>notes:</t>
+  </si>
+  <si>
+    <t>* indicates p-value &lt; 0.10</t>
+  </si>
+  <si>
+    <t>*** indicates p-value &lt; 0.01</t>
+  </si>
+  <si>
+    <t>** indicates p-value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>total goals &amp; goal differential are cumulative features</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>20.29***</t>
+  </si>
+  <si>
+    <t>42.59***</t>
+  </si>
+  <si>
+    <t>10.76***</t>
+  </si>
+  <si>
+    <t>-0.82***</t>
+  </si>
+  <si>
+    <t>-0.68***</t>
+  </si>
+  <si>
+    <t>-0.87***</t>
+  </si>
+  <si>
+    <t>20.28***</t>
+  </si>
+  <si>
+    <t>42.58***</t>
+  </si>
+  <si>
+    <t>10.73***</t>
+  </si>
+  <si>
+    <t>42.27***</t>
+  </si>
+  <si>
+    <t>4.51***</t>
+  </si>
+  <si>
+    <t>2.57***</t>
+  </si>
+  <si>
+    <t>-2.38***</t>
+  </si>
+  <si>
+    <t>-0.59***</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>-7.37***</t>
+  </si>
+  <si>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>20.26***</t>
+  </si>
+  <si>
+    <t>42.57***</t>
+  </si>
+  <si>
+    <t>11.97***</t>
+  </si>
+  <si>
+    <t>4.99***</t>
+  </si>
+  <si>
+    <t>3.11***</t>
+  </si>
+  <si>
+    <t>-2.21***</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>-5.97**</t>
+  </si>
+  <si>
+    <t>0.33***</t>
+  </si>
+  <si>
+    <t>-1.36***</t>
+  </si>
+  <si>
+    <t>0.44*</t>
+  </si>
+  <si>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>5.28***</t>
+  </si>
+  <si>
+    <t>3.88***</t>
+  </si>
+  <si>
+    <t>-2.13***</t>
+  </si>
+  <si>
+    <t>-0.70</t>
+  </si>
+  <si>
+    <t>-1.63</t>
+  </si>
+  <si>
+    <t>-2.58***</t>
+  </si>
+  <si>
+    <t>-4.56***</t>
+  </si>
+  <si>
+    <t>2.43***</t>
+  </si>
+  <si>
+    <t>model 1</t>
+  </si>
+  <si>
+    <t>model 2</t>
+  </si>
+  <si>
+    <t>model 3</t>
+  </si>
+  <si>
+    <t>model 4</t>
+  </si>
+  <si>
+    <t>model 5</t>
+  </si>
+  <si>
+    <t>model 6</t>
+  </si>
+  <si>
+    <t>3.97***</t>
+  </si>
+  <si>
+    <t>first 3 matchweeks</t>
+  </si>
+  <si>
+    <t>last 3 matchweeks</t>
+  </si>
+  <si>
+    <t>holiday matchweek</t>
+  </si>
+  <si>
+    <t>3.63***</t>
+  </si>
+  <si>
+    <t>1.86***</t>
+  </si>
+  <si>
+    <t>-0.97**</t>
+  </si>
+  <si>
+    <t>-3.03***</t>
+  </si>
+  <si>
+    <t>-8.26***</t>
+  </si>
+  <si>
+    <t>-5.58***</t>
+  </si>
+  <si>
+    <t>2.23***</t>
+  </si>
+  <si>
+    <t>-11.58***</t>
+  </si>
+  <si>
+    <t>-5.93***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -195,6 +436,25 @@
       <color theme="2" tint="-0.499984740745262"/>
       <name val="DejaVu Sans Mono"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="11"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,11 +481,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,6 +550,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -279,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -295,8 +583,64 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,12 +935,12 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -2498,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2515,41 +2859,41 @@
     <row r="1" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="23">
         <v>0.25</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="23">
         <v>0.75</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="4"/>
@@ -2571,15 +2915,34 @@
     </row>
     <row r="3" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="29">
+        <f>570/760</f>
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1.51</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1.31</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <v>2</v>
+      </c>
+      <c r="J3" s="26">
+        <v>6</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2596,31 +2959,31 @@
     <row r="4" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27">
-        <f>570/760</f>
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1.51</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24">
+        <v>26</v>
+      </c>
+      <c r="C4" s="29">
+        <f>518/760</f>
+        <v>0.68157894736842106</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
         <v>2</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="26">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -2638,33 +3001,33 @@
     </row>
     <row r="5" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="27">
-        <f>518/760</f>
-        <v>0.68157894736842106</v>
-      </c>
-      <c r="D5" s="24">
-        <v>1.24</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24">
-        <v>2</v>
-      </c>
-      <c r="J5" s="24">
-        <v>6</v>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="30">
+        <f>698/760</f>
+        <v>0.91842105263157892</v>
+      </c>
+      <c r="D5" s="27">
+        <v>2.74</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>3</v>
+      </c>
+      <c r="I5" s="28">
+        <v>4</v>
+      </c>
+      <c r="J5" s="28">
+        <v>9</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2679,36 +3042,17 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
-      <c r="B6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="28">
-        <f>698/760</f>
-        <v>0.91842105263157892</v>
-      </c>
-      <c r="D6" s="25">
-        <v>2.74</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1.71</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>3</v>
-      </c>
-      <c r="I6" s="26">
-        <v>4</v>
-      </c>
-      <c r="J6" s="26">
-        <v>9</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2724,15 +3068,34 @@
     </row>
     <row r="7" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="29">
+        <f>590/760</f>
+        <v>0.77631578947368418</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1.41</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+      <c r="J7" s="26">
+        <v>6</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2749,32 +3112,32 @@
     <row r="8" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="27">
-        <f>590/760</f>
-        <v>0.77631578947368418</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1.41</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24">
+        <v>30</v>
+      </c>
+      <c r="C8" s="29">
+        <f>628/760</f>
+        <v>0.82631578947368423</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1.72</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1.27</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
         <v>2</v>
       </c>
-      <c r="J8" s="24">
-        <v>6</v>
+      <c r="I8" s="26">
+        <v>3</v>
+      </c>
+      <c r="J8" s="26">
+        <v>9</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2791,33 +3154,33 @@
     </row>
     <row r="9" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="27">
-        <f>628/760</f>
-        <v>0.82631578947368423</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1.72</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1.27</v>
-      </c>
-      <c r="F9" s="24">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="B9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="30">
+        <f>716/760</f>
+        <v>0.94210526315789478</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3.18</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
         <v>2</v>
       </c>
-      <c r="I9" s="24">
+      <c r="H9" s="28">
         <v>3</v>
       </c>
-      <c r="J9" s="24">
-        <v>9</v>
+      <c r="I9" s="28">
+        <v>4</v>
+      </c>
+      <c r="J9" s="28">
+        <v>12</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2832,36 +3195,17 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="28">
-        <f>716/760</f>
-        <v>0.94210526315789478</v>
-      </c>
-      <c r="D10" s="26">
-        <v>3.18</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>2</v>
-      </c>
-      <c r="H10" s="26">
-        <v>3</v>
-      </c>
-      <c r="I10" s="26">
-        <v>4</v>
-      </c>
-      <c r="J10" s="26">
-        <v>12</v>
-      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2877,15 +3221,34 @@
     </row>
     <row r="11" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29">
+        <f>46/760</f>
+        <v>6.0526315789473685E-2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2902,31 +3265,31 @@
     <row r="12" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="27">
-        <f>46/760</f>
-        <v>6.0526315789473685E-2</v>
-      </c>
-      <c r="D12" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E12" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
+        <v>33</v>
+      </c>
+      <c r="C12" s="29">
+        <f>66/760</f>
+        <v>8.6842105263157901E-2</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
         <v>2</v>
       </c>
       <c r="K12" s="2"/>
@@ -2944,32 +3307,32 @@
     </row>
     <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="27">
-        <f>66/760</f>
-        <v>8.6842105263157901E-2</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
+      <c r="B13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="30">
+        <f>110/760</f>
+        <v>0.14473684210526316</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
         <v>2</v>
       </c>
       <c r="K13" s="2"/>
@@ -2985,136 +3348,69 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="28">
-        <f>110/760</f>
-        <v>0.14473684210526316</v>
-      </c>
-      <c r="D14" s="26">
-        <v>0.16</v>
-      </c>
-      <c r="E14" s="26">
-        <v>0.39</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+    <row r="14" spans="1:26" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="O18" s="1" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="O16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+    <row r="17" spans="2:10" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3125,4 +3421,1088 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.39</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="38">
+        <v>3.62</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="31">
+        <v>27.87</v>
+      </c>
+      <c r="D32" s="8">
+        <v>29.82</v>
+      </c>
+      <c r="E32" s="8">
+        <v>29.84</v>
+      </c>
+      <c r="F32" s="8">
+        <v>29.84</v>
+      </c>
+      <c r="G32" s="31">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="H32" s="31">
+        <v>74.430000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8">
+        <v>53548</v>
+      </c>
+      <c r="D34" s="8">
+        <v>53548</v>
+      </c>
+      <c r="E34" s="8">
+        <v>53548</v>
+      </c>
+      <c r="F34" s="8">
+        <v>53548</v>
+      </c>
+      <c r="G34" s="8">
+        <v>10640</v>
+      </c>
+      <c r="H34" s="8">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="G35" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B38" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B41" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13:G13 E16:F16 G15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Analysis/LongForm/final_tables.xlsx
+++ b/Analysis/LongForm/final_tables.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
   <si>
     <t>time</t>
   </si>
@@ -562,9 +562,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -635,6 +632,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -935,12 +935,12 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -2859,13 +2859,13 @@
     <row r="1" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -2918,29 +2918,29 @@
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <f>570/760</f>
         <v>0.75</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>1.51</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>1.31</v>
       </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
         <v>0.75</v>
       </c>
-      <c r="H3" s="26">
-        <v>1</v>
-      </c>
-      <c r="I3" s="26">
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25">
         <v>2</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>6</v>
       </c>
       <c r="K3" s="2"/>
@@ -2961,29 +2961,29 @@
       <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <f>518/760</f>
         <v>0.68157894736842106</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>1.24</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26">
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
         <v>2</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -3004,29 +3004,29 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <f>698/760</f>
         <v>0.91842105263157892</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>2.74</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>1.71</v>
       </c>
-      <c r="F5" s="28">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27">
         <v>3</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>4</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>9</v>
       </c>
       <c r="K5" s="2"/>
@@ -3045,14 +3045,14 @@
     <row r="6" spans="1:26" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3071,29 +3071,29 @@
       <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <f>590/760</f>
         <v>0.77631578947368418</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>1.41</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
-        <v>1</v>
-      </c>
-      <c r="I7" s="26">
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
         <v>2</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>6</v>
       </c>
       <c r="K7" s="2"/>
@@ -3114,29 +3114,29 @@
       <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>628/760</f>
         <v>0.82631578947368423</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>1.72</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1.27</v>
       </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
         <v>2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>3</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>9</v>
       </c>
       <c r="K8" s="2"/>
@@ -3157,29 +3157,29 @@
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>716/760</f>
         <v>0.94210526315789478</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>3.18</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>1.85</v>
       </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
         <v>2</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>3</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>4</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>12</v>
       </c>
       <c r="K9" s="2"/>
@@ -3198,14 +3198,14 @@
     <row r="10" spans="1:26" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3224,29 +3224,29 @@
       <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <f>46/760</f>
         <v>6.0526315789473685E-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>0.26</v>
       </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>0</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26">
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
         <v>2</v>
       </c>
       <c r="K11" s="2"/>
@@ -3267,29 +3267,29 @@
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <f>66/760</f>
         <v>8.6842105263157901E-2</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>0.08</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
         <v>2</v>
       </c>
       <c r="K12" s="2"/>
@@ -3310,29 +3310,29 @@
       <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>110/760</f>
         <v>0.14473684210526316</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>0.16</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>0.39</v>
       </c>
-      <c r="F13" s="28">
-        <v>0</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
         <v>2</v>
       </c>
       <c r="K13" s="2"/>
@@ -3428,7 +3428,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3442,8 +3442,8 @@
     <row r="1" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="20"/>
       <c r="G1" s="6"/>
       <c r="H1" s="20"/>
@@ -3489,22 +3489,22 @@
       <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="2"/>
@@ -3521,22 +3521,22 @@
       <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="2"/>
@@ -3553,22 +3553,22 @@
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="2"/>
@@ -3585,22 +3585,22 @@
       <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>0.39</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="2"/>
@@ -3617,22 +3617,22 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>91</v>
       </c>
       <c r="I7" s="2"/>
@@ -3647,12 +3647,12 @@
     <row r="8" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3668,25 +3668,25 @@
     </row>
     <row r="9" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="41" t="s">
+      <c r="C9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>110</v>
       </c>
       <c r="I9" s="2"/>
@@ -3703,22 +3703,22 @@
       <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="37" t="s">
+      <c r="C10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>111</v>
       </c>
       <c r="I10" s="2"/>
@@ -3733,12 +3733,12 @@
     <row r="11" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3754,25 +3754,25 @@
     </row>
     <row r="12" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="C12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="44" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="2"/>
@@ -3789,22 +3789,22 @@
       <c r="B13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="2"/>
@@ -3819,12 +3819,12 @@
     <row r="14" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3840,25 +3840,25 @@
     </row>
     <row r="15" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="C15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="2"/>
@@ -3875,22 +3875,22 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="49" t="s">
+      <c r="C16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>3.62</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I16" s="2"/>
@@ -3905,12 +3905,12 @@
     <row r="17" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3926,25 +3926,25 @@
     </row>
     <row r="18" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="45" t="s">
+      <c r="C18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="44" t="s">
         <v>97</v>
       </c>
       <c r="I18" s="2"/>
@@ -3961,22 +3961,22 @@
       <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="37" t="s">
+      <c r="C19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="2"/>
@@ -3993,23 +3993,23 @@
       <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="37" t="s">
+      <c r="C20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>0.02</v>
       </c>
-      <c r="H20" s="38">
-        <v>0.02</v>
+      <c r="H20" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -4025,22 +4025,22 @@
       <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="39" t="s">
+      <c r="C21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38" t="s">
         <v>112</v>
       </c>
       <c r="I21" s="2"/>
@@ -4057,22 +4057,22 @@
       <c r="B22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="39" t="s">
+      <c r="C22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>113</v>
       </c>
       <c r="I22" s="2"/>
@@ -4089,22 +4089,22 @@
       <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="39" t="s">
+      <c r="C23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>114</v>
       </c>
       <c r="I23" s="2"/>
@@ -4118,13 +4118,13 @@
     </row>
     <row r="24" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4140,25 +4140,25 @@
     </row>
     <row r="25" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="C25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>115</v>
       </c>
       <c r="I25" s="2"/>
@@ -4175,22 +4175,22 @@
       <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="37" t="s">
+      <c r="C26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>116</v>
       </c>
       <c r="I26" s="2"/>
@@ -4205,9 +4205,9 @@
     <row r="27" spans="1:20" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -4226,25 +4226,25 @@
     </row>
     <row r="28" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="45" t="s">
+      <c r="C28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="44" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="2"/>
@@ -4258,25 +4258,25 @@
     </row>
     <row r="29" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="48" t="s">
+      <c r="C29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="47" t="s">
         <v>118</v>
       </c>
       <c r="I29" s="2"/>
@@ -4293,22 +4293,22 @@
       <c r="B30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="37" t="s">
+      <c r="C30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="2"/>
@@ -4346,7 +4346,7 @@
       <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>27.87</v>
       </c>
       <c r="D32" s="8">
@@ -4358,10 +4358,10 @@
       <c r="F32" s="8">
         <v>29.84</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>74.489999999999995</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <v>74.430000000000007</v>
       </c>
     </row>
@@ -4415,22 +4415,22 @@
       <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>0.45</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>0.46</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>0.46</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="24">
         <v>0.46</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <v>0.04</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I35" s="2"/>
@@ -4465,7 +4465,7 @@
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="8"/>
@@ -4476,22 +4476,22 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Analysis/LongForm/final_tables.xlsx
+++ b/Analysis/LongForm/final_tables.xlsx
@@ -3428,7 +3428,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
